--- a/flows/SGOV_fund_flow_data.xlsx
+++ b/flows/SGOV_fund_flow_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B951"/>
+  <dimension ref="A1:B959"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9945,6 +9945,86 @@
         <v>10.06361</v>
       </c>
     </row>
+    <row r="952">
+      <c r="A952" t="inlineStr">
+        <is>
+          <t>2024-02-29</t>
+        </is>
+      </c>
+      <c r="B952" t="n">
+        <v>120.78156</v>
+      </c>
+    </row>
+    <row r="953">
+      <c r="A953" t="inlineStr">
+        <is>
+          <t>2024-03-01</t>
+        </is>
+      </c>
+      <c r="B953" t="n">
+        <v>-55.36575</v>
+      </c>
+    </row>
+    <row r="954">
+      <c r="A954" t="inlineStr">
+        <is>
+          <t>2024-03-04</t>
+        </is>
+      </c>
+      <c r="B954" t="n">
+        <v>-10.02981</v>
+      </c>
+    </row>
+    <row r="955">
+      <c r="A955" t="inlineStr">
+        <is>
+          <t>2024-03-05</t>
+        </is>
+      </c>
+      <c r="B955" t="n">
+        <v>250.7865</v>
+      </c>
+    </row>
+    <row r="956">
+      <c r="A956" t="inlineStr">
+        <is>
+          <t>2024-03-06</t>
+        </is>
+      </c>
+      <c r="B956" t="n">
+        <v>40.13188</v>
+      </c>
+    </row>
+    <row r="957">
+      <c r="A957" t="inlineStr">
+        <is>
+          <t>2024-03-07</t>
+        </is>
+      </c>
+      <c r="B957" t="n">
+        <v>70.24178000000001</v>
+      </c>
+    </row>
+    <row r="958">
+      <c r="A958" t="inlineStr">
+        <is>
+          <t>2024-03-08</t>
+        </is>
+      </c>
+      <c r="B958" t="n">
+        <v>5.01798</v>
+      </c>
+    </row>
+    <row r="959">
+      <c r="A959" t="inlineStr">
+        <is>
+          <t>2024-03-11</t>
+        </is>
+      </c>
+      <c r="B959" t="n">
+        <v>50.2014</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
